--- a/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A746033-9D63-4F74-83FE-D2BD1CB72863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{935DF57A-24F6-41D3-8EBE-CCA35B36E65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A0364022-0B76-43F6-AB99-FC824D6D6739}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{996A0770-51D4-4419-A679-E07BAF43DBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,24 +106,24 @@
     <t>82,92%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -151,10 +151,10 @@
     <t>73,58%</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>25,51%</t>
-  </si>
-  <si>
-    <t>—%</t>
   </si>
   <si>
     <t>74,49%</t>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF31DEE8-24EC-462B-9E11-6D444FD15031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0086B0-2519-49E2-B867-A1E7FBE9F9CD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>725</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>1309</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>1050</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>654</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -963,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1963</v>
+        <v>1776</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -981,25 +981,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>725</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>1309</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
       <c r="I9" s="7">
-        <v>654</v>
+        <v>1050</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>1963</v>
+        <v>1776</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1046,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1085,31 +1085,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1309</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>725</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>654</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1050</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1776</v>
+        <v>1963</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1136,25 +1136,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1309</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>725</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
       <c r="I12" s="7">
-        <v>1050</v>
+        <v>654</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>1776</v>
+        <v>1963</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173E521-BCC4-4883-AB55-E7D07F030216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644DAD2-643F-4D3B-BF57-78637F508418}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1625,47 +1625,47 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,47 +1674,47 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>944</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1905</v>
+        <v>944</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,38 +1723,38 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>944</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>2557</v>
+        <v>944</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1774,47 +1774,47 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>652</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>652</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,47 +1823,47 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1905</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>944</v>
+        <v>1905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,38 +1872,38 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2557</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>944</v>
+        <v>2557</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2086,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF699346-B392-4404-8E47-CEFE077C2F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E945E88E-82F7-40AC-8D8A-9812217E08EA}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2208,13 +2208,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2257,13 +2257,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2365,35 +2365,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>589</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,16 +2404,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1399</v>
+        <v>663</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2419,30 +2421,32 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1399</v>
+        <v>663</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1399</v>
+        <v>663</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2466,23 +2470,25 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>589</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1399</v>
+        <v>1252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2514,37 +2520,35 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,16 +2557,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>663</v>
+        <v>1399</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2570,32 +2574,30 @@
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>663</v>
+        <v>1399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,10 +2606,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>663</v>
+        <v>1399</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2619,25 +2621,23 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1252</v>
+        <v>1399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935DF57A-24F6-41D3-8EBE-CCA35B36E65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF36182-2B64-4D12-9B3F-5B56B17432EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{996A0770-51D4-4419-A679-E07BAF43DBF6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B9E2A89-B041-41E3-B43B-23829A319DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="59">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2007 (Tasa respuesta: 0,76%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -82,121 +100,112 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2012 (Tasa respuesta: 0,52%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2012 (Tasa respuesta: 0,52%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>67,45%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>37,88%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2015 (Tasa respuesta: 0,28%)</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -205,16 +214,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>66,95%</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -321,39 +321,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -405,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -516,13 +516,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -531,6 +524,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -595,19 +595,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0086B0-2519-49E2-B867-A1E7FBE9F9CD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168660AF-0115-44B3-89CE-156E75D93DC7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -739,34 +759,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3455</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -775,10 +795,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -790,34 +810,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>5092</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>5778</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -832,43 +852,43 @@
         <v>685</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>5092</v>
+        <v>2770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>5778</v>
+        <v>3455</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -879,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -894,34 +914,34 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2846</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>3572</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -930,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -945,34 +965,34 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -987,48 +1007,48 @@
         <v>725</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>1050</v>
+        <v>2846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>1776</v>
+        <v>3572</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1036,47 +1056,45 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1085,25 +1103,23 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1112,22 +1128,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1963</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1136,102 +1152,98 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
-        <v>1309</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
       <c r="I12" s="7">
-        <v>654</v>
+        <v>1180</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1963</v>
+        <v>1180</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1309</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1309</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,49 +1252,47 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>9516</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,55 +1301,214 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1309</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1309</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>2719</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>6797</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
         <v>16</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>9516</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2719</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6797</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>16</v>
+      </c>
+      <c r="N18" s="7">
+        <v>9516</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1352,8 +1521,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644DAD2-643F-4D3B-BF57-78637F508418}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3836C1E1-16D7-4C68-8F89-13E8914F1BB5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1369,7 +1538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1470,10 +1639,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1482,37 +1651,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1708</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2595</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,49 +1690,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2353</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3893</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,49 +1741,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1540</v>
+        <v>887</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1708</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" s="7">
-        <v>2353</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>6</v>
-      </c>
       <c r="N6" s="7">
-        <v>3893</v>
+        <v>2595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,44 +1794,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>652</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1589</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2241</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1676,21 +1847,23 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1699,13 +1872,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1714,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,52 +1896,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>652</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>944</v>
+        <v>1589</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>944</v>
+        <v>2241</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1780,26 +1955,26 @@
         <v>652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1808,13 +1983,13 @@
         <v>652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,47 +1998,47 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,100 +2047,98 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>2557</v>
+        <v>652</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>2557</v>
+        <v>652</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>652</v>
+        <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>653</v>
+        <v>1252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,49 +2147,47 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>3445</v>
+        <v>653</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>6741</v>
+        <v>653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,55 +2196,214 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1905</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1905</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3445</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3296</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6741</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>652</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>653</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>4097</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>3296</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
-        <v>11</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>11</v>
+      </c>
+      <c r="N18" s="7">
         <v>7394</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2086,8 +2416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E945E88E-82F7-40AC-8D8A-9812217E08EA}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CB749E-B4D1-4BB2-8F72-4B42627C16C0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2103,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2208,19 +2538,19 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2229,13 +2559,13 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -2244,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,40 +2587,40 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2306,43 +2636,43 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1173</v>
+        <v>613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1173</v>
+        <v>613</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,10 +2683,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -2371,31 +2701,31 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>589</v>
+        <v>1222</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,10 +2734,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2419,34 +2749,34 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,94 +2791,94 @@
         <v>663</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>589</v>
+        <v>1149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>1252</v>
+        <v>1811</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,47 +2887,47 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,26 +2942,26 @@
         <v>1399</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2640,18 +2970,18 @@
         <v>1399</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2659,47 +2989,41 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,49 +3032,43 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,55 +3077,210 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
         <v>2062</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1173</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3235</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>589</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>589</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="7">
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2062</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
         <v>1762</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>6</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>3824</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF36182-2B64-4D12-9B3F-5B56B17432EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2853104-30DE-42C0-8110-EE244EEB67B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B9E2A89-B041-41E3-B43B-23829A319DE2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5678AEF5-F5D9-40B3-9743-F4BCFADDDD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -163,28 +163,28 @@
     <t>84,07%</t>
   </si>
   <si>
-    <t>32,55%</t>
+    <t>33,33%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>62,12%</t>
+    <t>60,98%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>67,45%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2015 (Tasa respuesta: 0,28%)</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2016 (Tasa respuesta: 0,28%)</t>
   </si>
   <si>
     <t>48,71%</t>
@@ -205,7 +205,7 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>33,05%</t>
+    <t>24,61%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -214,7 +214,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>66,95%</t>
+    <t>75,39%</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168660AF-0115-44B3-89CE-156E75D93DC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9223743C-FF70-4C41-B8BE-E70B6221B26B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1521,7 +1521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3836C1E1-16D7-4C68-8F89-13E8914F1BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765896C0-0093-4863-AC43-8BBDECB56D51}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2416,7 +2416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CB749E-B4D1-4BB2-8F72-4B42627C16C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0F6BDD-C91C-49D3-995B-6117AF90D567}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2853104-30DE-42C0-8110-EE244EEB67B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6635F0-A0AF-4626-91D6-F0CF80AB5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5678AEF5-F5D9-40B3-9743-F4BCFADDDD2F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46386F1E-C6B1-4142-8F69-12243A2CA936}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2007 (Tasa respuesta: 0,76%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,15 +76,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>73,58%</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
@@ -112,33 +112,33 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
     <t>56,93%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>88,85%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>11,15%</t>
   </si>
   <si>
@@ -163,25 +163,25 @@
     <t>84,07%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>33,26%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>60,98%</t>
+    <t>62,8%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>66,74%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>39,02%</t>
+    <t>37,2%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2016 (Tasa respuesta: 0,28%)</t>
@@ -205,7 +205,7 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>24,61%</t>
+    <t>25,81%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -214,7 +214,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>75,39%</t>
+    <t>74,19%</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9223743C-FF70-4C41-B8BE-E70B6221B26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3572FD66-4E87-48FB-AEB0-35FF4866F486}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -744,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>685</v>
+        <v>2770</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -759,10 +759,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2770</v>
+        <v>685</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -846,25 +846,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2770</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>685</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2770</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>725</v>
+        <v>2846</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -914,10 +914,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>2846</v>
+        <v>725</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1001,25 +1001,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2846</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>725</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2846</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1054,32 +1054,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1180</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1105,30 +1105,30 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1152,32 +1152,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1180</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1203,32 +1203,32 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1309</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1240,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1254,30 +1254,30 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1301,32 +1301,32 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>1309</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -1352,10 +1352,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>2719</v>
+        <v>6797</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1367,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>6797</v>
+        <v>2719</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1454,25 +1454,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6797</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2719</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6797</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1521,7 +1521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765896C0-0093-4863-AC43-8BBDECB56D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772B2406-A061-4E3F-B6E5-8DABD9E255EB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1639,31 +1639,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1708</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>887</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1708</v>
-      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1678,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1702,7 +1702,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,25 +1741,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1708</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>887</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1708</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1794,31 +1794,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1589</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>652</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1589</v>
-      </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1857,7 +1857,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1896,25 +1896,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1589</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>652</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1589</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1949,32 +1949,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>652</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2000,30 +2000,30 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,32 +2047,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>652</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2098,32 +2098,32 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1252</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2147,32 +2147,32 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>653</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2196,32 +2196,32 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>1905</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -2250,31 +2250,31 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3445</v>
+        <v>3296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3296</v>
+        <v>3445</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2298,34 +2298,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>652</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2349,25 +2349,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3296</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4097</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3296</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2416,7 +2416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0F6BDD-C91C-49D3-995B-6117AF90D567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BD254F-B8AF-4D01-A1DF-BEB23ED95C78}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,32 +2534,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>613</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2585,30 +2585,30 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,32 +2632,32 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>613</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2686,31 +2686,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>663</v>
+        <v>560</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>560</v>
+        <v>663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2734,34 +2734,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>589</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2785,25 +2785,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1149</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>663</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1149</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2838,32 +2838,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1399</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2875,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2889,30 +2889,30 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2936,32 +2936,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>1399</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2991,39 +2991,39 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,39 +3036,39 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,39 +3081,39 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,34 +3124,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1173</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2062</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1173</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3175,34 +3175,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>589</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3229,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2062</v>
+        <v>1762</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1762</v>
+        <v>2062</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
